--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D261"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3982,6 +3982,83 @@
       </c>
       <c r="D261">
         <v>33.7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>32.3</v>
+      </c>
+      <c r="D262">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>32.8</v>
+      </c>
+      <c r="D263">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>31.9</v>
+      </c>
+      <c r="D264">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>32</v>
+      </c>
+      <c r="D265">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>30.4</v>
+      </c>
+      <c r="D266">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>30.4</v>
+      </c>
+      <c r="D267">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>31.5</v>
+      </c>
+      <c r="D268">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -4007,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4023,7 +4100,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.16038461538461</v>
+        <v>31.17228464419475</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4065,7 +4142,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.26846153846154</v>
+        <v>29.3434456928839</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4264,7 @@
         <v>0.8834701227347054</v>
       </c>
       <c r="D2">
-        <v>0.8424471555923204</v>
+        <v>0.8401608903855299</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4209,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8424471555923204</v>
+        <v>0.8401608903855299</v>
       </c>
       <c r="C4">
         <v>0.8160184399914946</v>
@@ -4241,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.35921596475009</v>
+        <v>3.318389695968845</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4257,7 +4334,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.459444614819906</v>
+        <v>4.426966251037963</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4059,6 +4059,28 @@
       </c>
       <c r="D268">
         <v>31.7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>30.9</v>
+      </c>
+      <c r="D269">
+        <v>31.3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>29.1</v>
+      </c>
+      <c r="D270">
+        <v>29.7</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4100,7 +4122,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4126,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.17228464419475</v>
+        <v>31.1635687732342</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4134,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>29.90756302521009</v>
+        <v>29.90756302521008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4142,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.3434456928839</v>
+        <v>29.35204460966543</v>
       </c>
     </row>
   </sheetData>
@@ -4261,10 +4283,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8834701227347054</v>
+        <v>0.883470122734706</v>
       </c>
       <c r="D2">
-        <v>0.8401608903855299</v>
+        <v>0.8389013982881607</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4272,13 +4294,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8834701227347054</v>
+        <v>0.883470122734706</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8160184399914946</v>
+        <v>0.816018439991495</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4286,10 +4308,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8401608903855299</v>
+        <v>0.8389013982881607</v>
       </c>
       <c r="C4">
-        <v>0.8160184399914946</v>
+        <v>0.816018439991495</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -4318,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.318389695968845</v>
+        <v>3.308437299630811</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4334,7 +4356,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.426966251037963</v>
+        <v>4.412081181960676</v>
       </c>
     </row>
   </sheetData>

--- a/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
+++ b/Indicators/Indicators_Process_B_7_4_and_O_8_2/files/ПИРМА-З/results.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:D271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4081,6 +4081,17 @@
       </c>
       <c r="D270">
         <v>29.7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>30.3</v>
+      </c>
+      <c r="D271">
+        <v>30.5</v>
       </c>
     </row>
   </sheetData>
@@ -4106,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4122,7 +4133,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.1635687732342</v>
+        <v>31.16037037037037</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4164,7 +4175,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>29.35204460966543</v>
+        <v>29.3562962962963</v>
       </c>
     </row>
   </sheetData>
@@ -4286,7 +4297,7 @@
         <v>0.883470122734706</v>
       </c>
       <c r="D2">
-        <v>0.8389013982881607</v>
+        <v>0.8384372475042499</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4308,7 +4319,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8389013982881607</v>
+        <v>0.8384372475042499</v>
       </c>
       <c r="C4">
         <v>0.816018439991495</v>
@@ -4340,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.308437299630811</v>
+        <v>3.302700237472116</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4356,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.412081181960676</v>
+        <v>4.404426759428335</v>
       </c>
     </row>
   </sheetData>
